--- a/summaries/trials/COVIDSAFE/variantSummary.xlsx
+++ b/summaries/trials/COVIDSAFE/variantSummary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="254">
   <si>
     <t xml:space="preserve">position</t>
   </si>
@@ -77,46 +77,115 @@
     <t xml:space="preserve">S84L</t>
   </si>
   <si>
+    <t xml:space="preserve">C28854T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S194L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1059T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T265I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G6618A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G2118D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A7833C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2523T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10741T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A20268G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23604A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P681H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T24076C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G25563T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orf3a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q57H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G29266A</t>
+  </si>
+  <si>
     <t xml:space="preserve">T1578C</t>
   </si>
   <si>
     <t xml:space="preserve">V438A</t>
   </si>
   <si>
-    <t xml:space="preserve">G6618A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G2118D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A7833C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N2523T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C10741T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A20268G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23604A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P681H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T24076C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C28854T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S194L</t>
+    <t xml:space="preserve">C10319T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L3352F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A18424G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N1653D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C21304T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2613C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G25907T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G172V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C27964T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S24L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C28472T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P67S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C28869T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P199L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T29710C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G8083A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2606I</t>
   </si>
   <si>
     <t xml:space="preserve">G28881A</t>
@@ -134,7 +203,145 @@
     <t xml:space="preserve">G204R</t>
   </si>
   <si>
-    <t xml:space="preserve">G29266A</t>
+    <t xml:space="preserve">C14805T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C28677T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T135I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T692C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F143L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C936T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T224I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2342G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I693V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G3259T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q998H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A5011C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1582H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5497T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T7168C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C8841T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2859I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11591T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L3776F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C12525T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4087I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T14988C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G16647T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G17122T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1219S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G18028T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1521S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C18348T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G19180T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V1905L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C19862T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2132V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C21145T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2560F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T23905C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G24095T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A845S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A26069G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E226G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C27920T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C27923T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G28300T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q9H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C28893T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P207L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C29445T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T391I</t>
   </si>
   <si>
     <t xml:space="preserve">A79G</t>
@@ -146,10 +353,22 @@
     <t xml:space="preserve">A406G</t>
   </si>
   <si>
-    <t xml:space="preserve">C1059T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T265I</t>
+    <t xml:space="preserve">T1416G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L384R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AATGA1605delATG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">del 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1623C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I453T</t>
   </si>
   <si>
     <t xml:space="preserve">G1736A</t>
@@ -158,19 +377,106 @@
     <t xml:space="preserve">V491M</t>
   </si>
   <si>
+    <t xml:space="preserve">A2071G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2110T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G2258A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V665I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2488T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2508T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P748L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2836T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3140T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P959S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A3278C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I1005L</t>
+  </si>
+  <si>
     <t xml:space="preserve">C3736T</t>
   </si>
   <si>
+    <t xml:space="preserve">T3766C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A3840G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E1192G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C4113T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1283V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4156G</t>
+  </si>
+  <si>
     <t xml:space="preserve">G4504T</t>
   </si>
   <si>
     <t xml:space="preserve">E1413D</t>
   </si>
   <si>
-    <t xml:space="preserve">G8083A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M2606I</t>
+    <t xml:space="preserve">C5907T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1881I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C5956T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A6441G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K2059R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C6730T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C7056A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2264N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A7710C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2482T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C7869T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S2535L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C8140T</t>
   </si>
   <si>
     <t xml:space="preserve">C8917T</t>
@@ -182,10 +488,16 @@
     <t xml:space="preserve">D3042N</t>
   </si>
   <si>
-    <t xml:space="preserve">C10319T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L3352F</t>
+    <t xml:space="preserve">T9875C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y3204H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10165T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11416T</t>
   </si>
   <si>
     <t xml:space="preserve">C11518T</t>
@@ -206,6 +518,15 @@
     <t xml:space="preserve">C12784T</t>
   </si>
   <si>
+    <t xml:space="preserve">C12786T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T4174I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C12880T</t>
+  </si>
+  <si>
     <t xml:space="preserve">C13335T</t>
   </si>
   <si>
@@ -233,27 +554,96 @@
     <t xml:space="preserve">C15450T</t>
   </si>
   <si>
+    <t xml:space="preserve">A15677G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y737C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C15960T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C16111T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C16308T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C16376T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P970L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C17336T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1290I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C17372T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A1302V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C17678T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1404M</t>
+  </si>
+  <si>
     <t xml:space="preserve">T17781C</t>
   </si>
   <si>
-    <t xml:space="preserve">A18424G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N1653D</t>
+    <t xml:space="preserve">G17814T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1449F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A17889G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C18131T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T1555I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G18803T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1779I</t>
   </si>
   <si>
     <t xml:space="preserve">T19839C</t>
   </si>
   <si>
-    <t xml:space="preserve">C21304T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2613C</t>
+    <t xml:space="preserve">C20987T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T2507I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G20995T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G2510C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C21191T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A2575V</t>
   </si>
   <si>
     <t xml:space="preserve">G21724A</t>
   </si>
   <si>
+    <t xml:space="preserve">T21823C</t>
+  </si>
+  <si>
     <t xml:space="preserve">C21846T</t>
   </si>
   <si>
@@ -275,9 +665,21 @@
     <t xml:space="preserve">T23510C</t>
   </si>
   <si>
+    <t xml:space="preserve">A23688G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N709S</t>
+  </si>
+  <si>
     <t xml:space="preserve">C23809T</t>
   </si>
   <si>
+    <t xml:space="preserve">G24368T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D936Y</t>
+  </si>
+  <si>
     <t xml:space="preserve">G25135T</t>
   </si>
   <si>
@@ -287,25 +689,31 @@
     <t xml:space="preserve">C25521T</t>
   </si>
   <si>
-    <t xml:space="preserve">orf3a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G25563T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q57H</t>
-  </si>
-  <si>
     <t xml:space="preserve">G25687T</t>
   </si>
   <si>
     <t xml:space="preserve">A99S</t>
   </si>
   <si>
-    <t xml:space="preserve">G25907T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G172V</t>
+    <t xml:space="preserve">T25818C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G25819A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A143T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25904T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S171L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGTTA26158delGTTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">del 4</t>
   </si>
   <si>
     <t xml:space="preserve">C26313T</t>
@@ -314,28 +722,58 @@
     <t xml:space="preserve">E</t>
   </si>
   <si>
+    <t xml:space="preserve">C26464T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C26822T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G26951T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A27041G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G27074T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C27513T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orf7a</t>
+  </si>
+  <si>
     <t xml:space="preserve">C27782T</t>
   </si>
   <si>
-    <t xml:space="preserve">C27964T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S24L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C28472T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P67S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C28869T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P199L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T29710C</t>
+    <t xml:space="preserve">C28102T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P70L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T28705C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C28744A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C28957T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G28985T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G238C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C29545T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G29747T</t>
   </si>
 </sst>
 </file>
@@ -698,7 +1136,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -715,7 +1153,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -732,7 +1170,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -749,7 +1187,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -766,7 +1204,7 @@
         <v>16</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -783,7 +1221,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -800,83 +1238,83 @@
         <v>20</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1578</v>
+        <v>28854</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6618</v>
+        <v>1059</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7833</v>
+        <v>6618</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10741</v>
+        <v>7833</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>20268</v>
+        <v>10741</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -885,245 +1323,245 @@
         <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>23604</v>
+        <v>20268</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>24076</v>
+        <v>23604</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>28854</v>
+        <v>24076</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>28881</v>
+        <v>25563</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>28882</v>
+        <v>29266</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>28883</v>
+        <v>1578</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>29266</v>
+        <v>10319</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>79</v>
+        <v>18424</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>219</v>
+        <v>21304</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>406</v>
+        <v>25907</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1059</v>
+        <v>27964</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1736</v>
+        <v>28472</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3736</v>
+        <v>28869</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4504</v>
+        <v>29710</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -1131,75 +1569,75 @@
         <v>8083</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>8917</v>
+        <v>28881</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>9389</v>
+        <v>28882</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>10319</v>
+        <v>28883</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>11518</v>
+        <v>14805</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -1208,117 +1646,117 @@
         <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>12488</v>
+        <v>28677</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>12741</v>
+        <v>692</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>12784</v>
+        <v>936</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>13335</v>
+        <v>2342</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>13536</v>
+        <v>3259</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
         <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>13730</v>
+        <v>5011</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
         <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>15024</v>
+        <v>5497</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
@@ -1327,83 +1765,83 @@
         <v>10</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>15100</v>
+        <v>7168</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>15450</v>
+        <v>8841</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>17781</v>
+        <v>11591</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
         <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>18424</v>
+        <v>12525</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>19839</v>
+        <v>14988</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
@@ -1412,276 +1850,276 @@
         <v>10</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>21304</v>
+        <v>16647</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
         <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>21724</v>
+        <v>17122</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>21846</v>
+        <v>18028</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>21974</v>
+        <v>18348</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>22328</v>
+        <v>19180</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>23510</v>
+        <v>19862</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>23809</v>
+        <v>21145</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>25135</v>
+        <v>23905</v>
       </c>
       <c r="B52" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C52" t="s">
         <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>25521</v>
+        <v>24095</v>
       </c>
       <c r="B53" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C53" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>25563</v>
+        <v>26069</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C54" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="D54" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>25687</v>
+        <v>27920</v>
       </c>
       <c r="B55" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C55" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>25907</v>
+        <v>27923</v>
       </c>
       <c r="B56" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C56" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D56" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>26313</v>
+        <v>28300</v>
       </c>
       <c r="B57" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C57" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>27782</v>
+        <v>28893</v>
       </c>
       <c r="B58" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D58" t="s">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>27964</v>
+        <v>29445</v>
       </c>
       <c r="B59" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D59" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>28472</v>
+        <v>79</v>
       </c>
       <c r="B60" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="E60" t="n">
         <v>1</v>
@@ -1689,16 +2127,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>28869</v>
+        <v>219</v>
       </c>
       <c r="B61" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C61" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="E61" t="n">
         <v>1</v>
@@ -1706,18 +2144,1565 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>29710</v>
+        <v>406</v>
       </c>
       <c r="B62" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1416</v>
+      </c>
+      <c r="B63" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" t="s">
+        <v>114</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1605</v>
+      </c>
+      <c r="B64" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>116</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1623</v>
+      </c>
+      <c r="B65" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>118</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1736</v>
+      </c>
+      <c r="B66" t="s">
+        <v>119</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>120</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>2071</v>
+      </c>
+      <c r="B67" t="s">
+        <v>121</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2110</v>
+      </c>
+      <c r="B68" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2258</v>
+      </c>
+      <c r="B69" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" t="s">
+        <v>124</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>2488</v>
+      </c>
+      <c r="B70" t="s">
+        <v>125</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2508</v>
+      </c>
+      <c r="B71" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" t="s">
+        <v>127</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2836</v>
+      </c>
+      <c r="B72" t="s">
+        <v>128</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>3140</v>
+      </c>
+      <c r="B73" t="s">
+        <v>129</v>
+      </c>
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" t="s">
+        <v>130</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>3278</v>
+      </c>
+      <c r="B74" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" t="s">
+        <v>132</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>3736</v>
+      </c>
+      <c r="B75" t="s">
+        <v>133</v>
+      </c>
+      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>3766</v>
+      </c>
+      <c r="B76" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>3840</v>
+      </c>
+      <c r="B77" t="s">
+        <v>135</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" t="s">
+        <v>136</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>4113</v>
+      </c>
+      <c r="B78" t="s">
+        <v>137</v>
+      </c>
+      <c r="C78" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" t="s">
+        <v>138</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>4156</v>
+      </c>
+      <c r="B79" t="s">
+        <v>139</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>4504</v>
+      </c>
+      <c r="B80" t="s">
+        <v>140</v>
+      </c>
+      <c r="C80" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" t="s">
+        <v>141</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>5907</v>
+      </c>
+      <c r="B81" t="s">
+        <v>142</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" t="s">
+        <v>143</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>5956</v>
+      </c>
+      <c r="B82" t="s">
+        <v>144</v>
+      </c>
+      <c r="C82" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>6441</v>
+      </c>
+      <c r="B83" t="s">
+        <v>145</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" t="s">
+        <v>146</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>6730</v>
+      </c>
+      <c r="B84" t="s">
+        <v>147</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>7056</v>
+      </c>
+      <c r="B85" t="s">
+        <v>148</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" t="s">
+        <v>149</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>7710</v>
+      </c>
+      <c r="B86" t="s">
+        <v>150</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" t="s">
+        <v>151</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>7869</v>
+      </c>
+      <c r="B87" t="s">
+        <v>152</v>
+      </c>
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" t="s">
+        <v>153</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>8140</v>
+      </c>
+      <c r="B88" t="s">
+        <v>154</v>
+      </c>
+      <c r="C88" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>8917</v>
+      </c>
+      <c r="B89" t="s">
+        <v>155</v>
+      </c>
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>9389</v>
+      </c>
+      <c r="B90" t="s">
+        <v>156</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" t="s">
+        <v>157</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>9875</v>
+      </c>
+      <c r="B91" t="s">
+        <v>158</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" t="s">
+        <v>159</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>10165</v>
+      </c>
+      <c r="B92" t="s">
+        <v>160</v>
+      </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>11416</v>
+      </c>
+      <c r="B93" t="s">
+        <v>161</v>
+      </c>
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>11518</v>
+      </c>
+      <c r="B94" t="s">
+        <v>162</v>
+      </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>12488</v>
+      </c>
+      <c r="B95" t="s">
+        <v>163</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" t="s">
+        <v>164</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>12741</v>
+      </c>
+      <c r="B96" t="s">
+        <v>165</v>
+      </c>
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" t="s">
+        <v>166</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>12784</v>
+      </c>
+      <c r="B97" t="s">
+        <v>167</v>
+      </c>
+      <c r="C97" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>12786</v>
+      </c>
+      <c r="B98" t="s">
+        <v>168</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" t="s">
+        <v>169</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>12880</v>
+      </c>
+      <c r="B99" t="s">
+        <v>170</v>
+      </c>
+      <c r="C99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>13335</v>
+      </c>
+      <c r="B100" t="s">
+        <v>171</v>
+      </c>
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" t="s">
+        <v>172</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>13536</v>
+      </c>
+      <c r="B101" t="s">
+        <v>173</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>13730</v>
+      </c>
+      <c r="B102" t="s">
+        <v>174</v>
+      </c>
+      <c r="C102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" t="s">
+        <v>175</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>15024</v>
+      </c>
+      <c r="B103" t="s">
+        <v>176</v>
+      </c>
+      <c r="C103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>15100</v>
+      </c>
+      <c r="B104" t="s">
+        <v>177</v>
+      </c>
+      <c r="C104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" t="s">
+        <v>178</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>15450</v>
+      </c>
+      <c r="B105" t="s">
+        <v>179</v>
+      </c>
+      <c r="C105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>15677</v>
+      </c>
+      <c r="B106" t="s">
+        <v>180</v>
+      </c>
+      <c r="C106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" t="s">
+        <v>181</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>15960</v>
+      </c>
+      <c r="B107" t="s">
+        <v>182</v>
+      </c>
+      <c r="C107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>16111</v>
+      </c>
+      <c r="B108" t="s">
+        <v>183</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>16308</v>
+      </c>
+      <c r="B109" t="s">
+        <v>184</v>
+      </c>
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>16376</v>
+      </c>
+      <c r="B110" t="s">
+        <v>185</v>
+      </c>
+      <c r="C110" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" t="s">
+        <v>186</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>17336</v>
+      </c>
+      <c r="B111" t="s">
+        <v>187</v>
+      </c>
+      <c r="C111" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" t="s">
+        <v>188</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>17372</v>
+      </c>
+      <c r="B112" t="s">
+        <v>189</v>
+      </c>
+      <c r="C112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" t="s">
+        <v>190</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>17678</v>
+      </c>
+      <c r="B113" t="s">
+        <v>191</v>
+      </c>
+      <c r="C113" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" t="s">
+        <v>192</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>17781</v>
+      </c>
+      <c r="B114" t="s">
+        <v>193</v>
+      </c>
+      <c r="C114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" t="s">
+        <v>10</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>17814</v>
+      </c>
+      <c r="B115" t="s">
+        <v>194</v>
+      </c>
+      <c r="C115" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" t="s">
+        <v>195</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>17889</v>
+      </c>
+      <c r="B116" t="s">
+        <v>196</v>
+      </c>
+      <c r="C116" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>18131</v>
+      </c>
+      <c r="B117" t="s">
+        <v>197</v>
+      </c>
+      <c r="C117" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" t="s">
+        <v>198</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>18803</v>
+      </c>
+      <c r="B118" t="s">
+        <v>199</v>
+      </c>
+      <c r="C118" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" t="s">
+        <v>200</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>19839</v>
+      </c>
+      <c r="B119" t="s">
+        <v>201</v>
+      </c>
+      <c r="C119" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>20987</v>
+      </c>
+      <c r="B120" t="s">
+        <v>202</v>
+      </c>
+      <c r="C120" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" t="s">
+        <v>203</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>20995</v>
+      </c>
+      <c r="B121" t="s">
+        <v>204</v>
+      </c>
+      <c r="C121" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" t="s">
+        <v>205</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>21191</v>
+      </c>
+      <c r="B122" t="s">
+        <v>206</v>
+      </c>
+      <c r="C122" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" t="s">
+        <v>207</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>21724</v>
+      </c>
+      <c r="B123" t="s">
+        <v>208</v>
+      </c>
+      <c r="C123" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>21823</v>
+      </c>
+      <c r="B124" t="s">
+        <v>209</v>
+      </c>
+      <c r="C124" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>21846</v>
+      </c>
+      <c r="B125" t="s">
+        <v>210</v>
+      </c>
+      <c r="C125" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" t="s">
+        <v>211</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>21974</v>
+      </c>
+      <c r="B126" t="s">
+        <v>212</v>
+      </c>
+      <c r="C126" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" t="s">
+        <v>213</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>22328</v>
+      </c>
+      <c r="B127" t="s">
+        <v>214</v>
+      </c>
+      <c r="C127" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" t="s">
+        <v>215</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>23510</v>
+      </c>
+      <c r="B128" t="s">
+        <v>216</v>
+      </c>
+      <c r="C128" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" t="s">
+        <v>10</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>23688</v>
+      </c>
+      <c r="B129" t="s">
+        <v>217</v>
+      </c>
+      <c r="C129" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" t="s">
+        <v>218</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>23809</v>
+      </c>
+      <c r="B130" t="s">
+        <v>219</v>
+      </c>
+      <c r="C130" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" t="s">
+        <v>10</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>24368</v>
+      </c>
+      <c r="B131" t="s">
+        <v>220</v>
+      </c>
+      <c r="C131" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" t="s">
+        <v>221</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>25135</v>
+      </c>
+      <c r="B132" t="s">
+        <v>222</v>
+      </c>
+      <c r="C132" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" t="s">
+        <v>223</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>25521</v>
+      </c>
+      <c r="B133" t="s">
+        <v>224</v>
+      </c>
+      <c r="C133" t="s">
+        <v>36</v>
+      </c>
+      <c r="D133" t="s">
+        <v>10</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>25687</v>
+      </c>
+      <c r="B134" t="s">
+        <v>225</v>
+      </c>
+      <c r="C134" t="s">
+        <v>36</v>
+      </c>
+      <c r="D134" t="s">
+        <v>226</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>25818</v>
+      </c>
+      <c r="B135" t="s">
+        <v>227</v>
+      </c>
+      <c r="C135" t="s">
+        <v>36</v>
+      </c>
+      <c r="D135" t="s">
+        <v>10</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>25819</v>
+      </c>
+      <c r="B136" t="s">
+        <v>228</v>
+      </c>
+      <c r="C136" t="s">
+        <v>36</v>
+      </c>
+      <c r="D136" t="s">
+        <v>229</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>25904</v>
+      </c>
+      <c r="B137" t="s">
+        <v>230</v>
+      </c>
+      <c r="C137" t="s">
+        <v>36</v>
+      </c>
+      <c r="D137" t="s">
+        <v>231</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>26158</v>
+      </c>
+      <c r="B138" t="s">
+        <v>232</v>
+      </c>
+      <c r="C138" t="s">
+        <v>36</v>
+      </c>
+      <c r="D138" t="s">
+        <v>233</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>26313</v>
+      </c>
+      <c r="B139" t="s">
+        <v>234</v>
+      </c>
+      <c r="C139" t="s">
+        <v>235</v>
+      </c>
+      <c r="D139" t="s">
+        <v>10</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>26464</v>
+      </c>
+      <c r="B140" t="s">
+        <v>236</v>
+      </c>
+      <c r="C140" t="s">
+        <v>235</v>
+      </c>
+      <c r="D140" t="s">
+        <v>10</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>26822</v>
+      </c>
+      <c r="B141" t="s">
+        <v>237</v>
+      </c>
+      <c r="C141" t="s">
+        <v>238</v>
+      </c>
+      <c r="D141" t="s">
+        <v>10</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>26951</v>
+      </c>
+      <c r="B142" t="s">
+        <v>239</v>
+      </c>
+      <c r="C142" t="s">
+        <v>238</v>
+      </c>
+      <c r="D142" t="s">
+        <v>10</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>27041</v>
+      </c>
+      <c r="B143" t="s">
+        <v>240</v>
+      </c>
+      <c r="C143" t="s">
+        <v>238</v>
+      </c>
+      <c r="D143" t="s">
+        <v>10</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>27074</v>
+      </c>
+      <c r="B144" t="s">
+        <v>241</v>
+      </c>
+      <c r="C144" t="s">
+        <v>238</v>
+      </c>
+      <c r="D144" t="s">
+        <v>10</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>27513</v>
+      </c>
+      <c r="B145" t="s">
+        <v>242</v>
+      </c>
+      <c r="C145" t="s">
+        <v>243</v>
+      </c>
+      <c r="D145" t="s">
+        <v>10</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>27782</v>
+      </c>
+      <c r="B146" t="s">
+        <v>244</v>
+      </c>
+      <c r="C146" t="s">
         <v>6</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D146" t="s">
         <v>7</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>28102</v>
+      </c>
+      <c r="B147" t="s">
+        <v>245</v>
+      </c>
+      <c r="C147" t="s">
+        <v>19</v>
+      </c>
+      <c r="D147" t="s">
+        <v>246</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>28705</v>
+      </c>
+      <c r="B148" t="s">
+        <v>247</v>
+      </c>
+      <c r="C148" t="s">
+        <v>22</v>
+      </c>
+      <c r="D148" t="s">
+        <v>10</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>28744</v>
+      </c>
+      <c r="B149" t="s">
+        <v>248</v>
+      </c>
+      <c r="C149" t="s">
+        <v>22</v>
+      </c>
+      <c r="D149" t="s">
+        <v>10</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>28957</v>
+      </c>
+      <c r="B150" t="s">
+        <v>249</v>
+      </c>
+      <c r="C150" t="s">
+        <v>22</v>
+      </c>
+      <c r="D150" t="s">
+        <v>10</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>28985</v>
+      </c>
+      <c r="B151" t="s">
+        <v>250</v>
+      </c>
+      <c r="C151" t="s">
+        <v>22</v>
+      </c>
+      <c r="D151" t="s">
+        <v>251</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>29545</v>
+      </c>
+      <c r="B152" t="s">
+        <v>252</v>
+      </c>
+      <c r="C152" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" t="s">
+        <v>7</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>29747</v>
+      </c>
+      <c r="B153" t="s">
+        <v>253</v>
+      </c>
+      <c r="C153" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" t="s">
+        <v>7</v>
+      </c>
+      <c r="E153" t="n">
         <v>1</v>
       </c>
     </row>
